--- a/Excel_sample/payroll.xlsx
+++ b/Excel_sample/payroll.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="255" windowWidth="14805" windowHeight="7965"/>
+    <workbookView xWindow="870" yWindow="-315" windowWidth="25815" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <r>
       <rPr>
@@ -567,6 +567,10 @@
 提繳金額</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>應發金額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -579,7 +583,7 @@
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -642,6 +646,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="6">
@@ -711,7 +723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -798,6 +810,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1129,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV32"/>
+  <dimension ref="A1:AW32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1158,7 @@
     <col min="22" max="22" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1188,10 +1203,11 @@
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="2"/>
-    </row>
-    <row r="2" spans="1:48" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="2"/>
+    </row>
+    <row r="2" spans="1:49" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -1309,29 +1325,32 @@
       <c r="AM2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AN2" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AP2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AS2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AT2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -1376,12 +1395,13 @@
       <c r="AP3" s="12"/>
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="19"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="12"/>
       <c r="AV3" s="19"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW3" s="19"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1426,12 +1446,13 @@
       <c r="AP4" s="12"/>
       <c r="AQ4" s="12"/>
       <c r="AR4" s="12"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="19"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="12"/>
       <c r="AV4" s="19"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW4" s="19"/>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1476,12 +1497,13 @@
       <c r="AP5" s="12"/>
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
-      <c r="AS5" s="18"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="19"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="12"/>
       <c r="AV5" s="19"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW5" s="19"/>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1526,12 +1548,13 @@
       <c r="AP6" s="12"/>
       <c r="AQ6" s="12"/>
       <c r="AR6" s="12"/>
-      <c r="AS6" s="18"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="19"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="12"/>
       <c r="AV6" s="19"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW6" s="19"/>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1576,12 +1599,13 @@
       <c r="AP7" s="12"/>
       <c r="AQ7" s="12"/>
       <c r="AR7" s="12"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="19"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="12"/>
       <c r="AV7" s="19"/>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW7" s="19"/>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1626,12 +1650,13 @@
       <c r="AP8" s="12"/>
       <c r="AQ8" s="12"/>
       <c r="AR8" s="12"/>
-      <c r="AS8" s="18"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="19"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="12"/>
       <c r="AV8" s="19"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW8" s="19"/>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1676,12 +1701,13 @@
       <c r="AP9" s="12"/>
       <c r="AQ9" s="12"/>
       <c r="AR9" s="12"/>
-      <c r="AS9" s="18"/>
-      <c r="AT9" s="12"/>
-      <c r="AU9" s="19"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="12"/>
       <c r="AV9" s="19"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW9" s="19"/>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1726,12 +1752,13 @@
       <c r="AP10" s="12"/>
       <c r="AQ10" s="12"/>
       <c r="AR10" s="12"/>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="12"/>
-      <c r="AU10" s="19"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="12"/>
       <c r="AV10" s="19"/>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW10" s="19"/>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1776,12 +1803,13 @@
       <c r="AP11" s="12"/>
       <c r="AQ11" s="12"/>
       <c r="AR11" s="12"/>
-      <c r="AS11" s="18"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="19"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="12"/>
       <c r="AV11" s="19"/>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW11" s="19"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1826,12 +1854,13 @@
       <c r="AP12" s="12"/>
       <c r="AQ12" s="12"/>
       <c r="AR12" s="12"/>
-      <c r="AS12" s="18"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="19"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="12"/>
       <c r="AV12" s="19"/>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW12" s="19"/>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1876,12 +1905,13 @@
       <c r="AP13" s="12"/>
       <c r="AQ13" s="12"/>
       <c r="AR13" s="12"/>
-      <c r="AS13" s="18"/>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="19"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="12"/>
       <c r="AV13" s="19"/>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW13" s="19"/>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1926,12 +1956,13 @@
       <c r="AP14" s="12"/>
       <c r="AQ14" s="12"/>
       <c r="AR14" s="12"/>
-      <c r="AS14" s="18"/>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="19"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="12"/>
       <c r="AV14" s="19"/>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW14" s="19"/>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1976,12 +2007,13 @@
       <c r="AP15" s="12"/>
       <c r="AQ15" s="12"/>
       <c r="AR15" s="12"/>
-      <c r="AS15" s="18"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="19"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="18"/>
+      <c r="AU15" s="12"/>
       <c r="AV15" s="19"/>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW15" s="19"/>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -2026,12 +2058,13 @@
       <c r="AP16" s="12"/>
       <c r="AQ16" s="12"/>
       <c r="AR16" s="12"/>
-      <c r="AS16" s="18"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="19"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="18"/>
+      <c r="AU16" s="12"/>
       <c r="AV16" s="19"/>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW16" s="19"/>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -2076,12 +2109,13 @@
       <c r="AP17" s="12"/>
       <c r="AQ17" s="12"/>
       <c r="AR17" s="12"/>
-      <c r="AS17" s="18"/>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="19"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="18"/>
+      <c r="AU17" s="12"/>
       <c r="AV17" s="19"/>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW17" s="19"/>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2126,12 +2160,13 @@
       <c r="AP18" s="12"/>
       <c r="AQ18" s="12"/>
       <c r="AR18" s="12"/>
-      <c r="AS18" s="18"/>
-      <c r="AT18" s="12"/>
-      <c r="AU18" s="19"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="12"/>
       <c r="AV18" s="19"/>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW18" s="19"/>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -2178,10 +2213,11 @@
       <c r="AR19" s="23"/>
       <c r="AS19" s="23"/>
       <c r="AT19" s="23"/>
-      <c r="AU19" s="19"/>
+      <c r="AU19" s="23"/>
       <c r="AV19" s="19"/>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW19" s="19"/>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -2228,10 +2264,11 @@
       <c r="AR20" s="23"/>
       <c r="AS20" s="23"/>
       <c r="AT20" s="23"/>
-      <c r="AU20" s="19"/>
+      <c r="AU20" s="23"/>
       <c r="AV20" s="19"/>
-    </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW20" s="19"/>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -2278,10 +2315,11 @@
       <c r="AR21" s="28"/>
       <c r="AS21" s="28"/>
       <c r="AT21" s="28"/>
-      <c r="AU21" s="19"/>
+      <c r="AU21" s="28"/>
       <c r="AV21" s="19"/>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW21" s="19"/>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2328,10 +2366,11 @@
       <c r="AR22" s="12"/>
       <c r="AS22" s="12"/>
       <c r="AT22" s="12"/>
-      <c r="AU22" s="19"/>
+      <c r="AU22" s="12"/>
       <c r="AV22" s="19"/>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW22" s="19"/>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2378,10 +2417,11 @@
       <c r="AR23" s="12"/>
       <c r="AS23" s="12"/>
       <c r="AT23" s="12"/>
-      <c r="AU23" s="19"/>
+      <c r="AU23" s="12"/>
       <c r="AV23" s="19"/>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW23" s="19"/>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2428,10 +2468,11 @@
       <c r="AR24" s="12"/>
       <c r="AS24" s="12"/>
       <c r="AT24" s="12"/>
-      <c r="AU24" s="19"/>
+      <c r="AU24" s="12"/>
       <c r="AV24" s="19"/>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW24" s="19"/>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2478,10 +2519,11 @@
       <c r="AR25" s="12"/>
       <c r="AS25" s="12"/>
       <c r="AT25" s="12"/>
-      <c r="AU25" s="19"/>
+      <c r="AU25" s="12"/>
       <c r="AV25" s="19"/>
-    </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW25" s="19"/>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2528,8 +2570,9 @@
       <c r="AR26" s="12"/>
       <c r="AS26" s="12"/>
       <c r="AT26" s="12"/>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AU26" s="12"/>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2576,8 +2619,9 @@
       <c r="AR27" s="12"/>
       <c r="AS27" s="12"/>
       <c r="AT27" s="12"/>
-    </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AU27" s="12"/>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2624,8 +2668,9 @@
       <c r="AR28" s="12"/>
       <c r="AS28" s="12"/>
       <c r="AT28" s="12"/>
-    </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AU28" s="12"/>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2672,8 +2717,9 @@
       <c r="AR29" s="11"/>
       <c r="AS29" s="11"/>
       <c r="AT29" s="11"/>
-    </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AU29" s="11"/>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2720,8 +2766,9 @@
       <c r="AR30" s="11"/>
       <c r="AS30" s="11"/>
       <c r="AT30" s="11"/>
-    </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AU30" s="11"/>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2768,8 +2815,9 @@
       <c r="AR31" s="11"/>
       <c r="AS31" s="11"/>
       <c r="AT31" s="11"/>
-    </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AU31" s="11"/>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2816,6 +2864,7 @@
       <c r="AR32" s="11"/>
       <c r="AS32" s="11"/>
       <c r="AT32" s="11"/>
+      <c r="AU32" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Excel_sample/payroll.xlsx
+++ b/Excel_sample/payroll.xlsx
@@ -11,12 +11,12 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <r>
       <rPr>
@@ -591,6 +591,10 @@
   </si>
   <si>
     <t>調應稅加班</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>調特休假薪資</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +608,7 @@
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -668,6 +672,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -730,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -814,6 +826,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1148,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA32"/>
+  <dimension ref="A1:BB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1175,35 +1190,36 @@
     <col min="20" max="20" width="9.5" customWidth="1"/>
     <col min="21" max="21" width="10.5" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.125" customWidth="1"/>
-    <col min="26" max="26" width="9.5" customWidth="1"/>
-    <col min="27" max="27" width="9" customWidth="1"/>
-    <col min="28" max="28" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.375" customWidth="1"/>
-    <col min="32" max="32" width="10.875" customWidth="1"/>
-    <col min="33" max="33" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.125" customWidth="1"/>
-    <col min="35" max="35" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.875" customWidth="1"/>
-    <col min="41" max="41" width="9.625" customWidth="1"/>
-    <col min="42" max="42" width="9.125" customWidth="1"/>
-    <col min="43" max="44" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.25" customWidth="1"/>
-    <col min="46" max="46" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.5" customWidth="1"/>
-    <col min="48" max="48" width="9.25" customWidth="1"/>
-    <col min="49" max="49" width="9" customWidth="1"/>
-    <col min="50" max="50" width="10" customWidth="1"/>
-    <col min="51" max="51" width="9.25" customWidth="1"/>
+    <col min="23" max="23" width="13.5" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.125" customWidth="1"/>
+    <col min="27" max="27" width="9.5" customWidth="1"/>
+    <col min="28" max="28" width="9" customWidth="1"/>
+    <col min="29" max="29" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.375" customWidth="1"/>
+    <col min="33" max="33" width="10.875" customWidth="1"/>
+    <col min="34" max="34" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.125" customWidth="1"/>
+    <col min="36" max="36" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.875" customWidth="1"/>
+    <col min="42" max="42" width="9.625" customWidth="1"/>
+    <col min="43" max="43" width="9.125" customWidth="1"/>
+    <col min="44" max="45" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.25" customWidth="1"/>
+    <col min="47" max="47" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.5" customWidth="1"/>
+    <col min="49" max="49" width="9.25" customWidth="1"/>
+    <col min="50" max="50" width="9" customWidth="1"/>
+    <col min="51" max="51" width="10" customWidth="1"/>
+    <col min="52" max="52" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1253,10 +1269,11 @@
       <c r="AU1" s="2"/>
       <c r="AV1" s="2"/>
       <c r="AW1" s="2"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="2"/>
     </row>
-    <row r="2" spans="1:53" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -1323,95 +1340,98 @@
       <c r="V2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AS2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AU2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AW2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1461,12 +1481,13 @@
       <c r="AU3" s="10"/>
       <c r="AV3" s="10"/>
       <c r="AW3" s="10"/>
-      <c r="AX3" s="16"/>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="17"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="10"/>
       <c r="BA3" s="17"/>
+      <c r="BB3" s="17"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1516,12 +1537,13 @@
       <c r="AU4" s="10"/>
       <c r="AV4" s="10"/>
       <c r="AW4" s="10"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="17"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="10"/>
       <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1571,12 +1593,13 @@
       <c r="AU5" s="10"/>
       <c r="AV5" s="10"/>
       <c r="AW5" s="10"/>
-      <c r="AX5" s="16"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="17"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="10"/>
       <c r="BA5" s="17"/>
+      <c r="BB5" s="17"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1626,12 +1649,13 @@
       <c r="AU6" s="10"/>
       <c r="AV6" s="10"/>
       <c r="AW6" s="10"/>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="17"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="10"/>
       <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1681,12 +1705,13 @@
       <c r="AU7" s="10"/>
       <c r="AV7" s="10"/>
       <c r="AW7" s="10"/>
-      <c r="AX7" s="16"/>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="17"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="10"/>
       <c r="BA7" s="17"/>
+      <c r="BB7" s="17"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1736,12 +1761,13 @@
       <c r="AU8" s="10"/>
       <c r="AV8" s="10"/>
       <c r="AW8" s="10"/>
-      <c r="AX8" s="16"/>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="17"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="10"/>
       <c r="BA8" s="17"/>
+      <c r="BB8" s="17"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1791,12 +1817,13 @@
       <c r="AU9" s="10"/>
       <c r="AV9" s="10"/>
       <c r="AW9" s="10"/>
-      <c r="AX9" s="16"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="17"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="10"/>
       <c r="BA9" s="17"/>
+      <c r="BB9" s="17"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1846,12 +1873,13 @@
       <c r="AU10" s="10"/>
       <c r="AV10" s="10"/>
       <c r="AW10" s="10"/>
-      <c r="AX10" s="16"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="17"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="10"/>
       <c r="BA10" s="17"/>
+      <c r="BB10" s="17"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1901,12 +1929,13 @@
       <c r="AU11" s="10"/>
       <c r="AV11" s="10"/>
       <c r="AW11" s="10"/>
-      <c r="AX11" s="16"/>
-      <c r="AY11" s="10"/>
-      <c r="AZ11" s="17"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="10"/>
       <c r="BA11" s="17"/>
+      <c r="BB11" s="17"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1956,12 +1985,13 @@
       <c r="AU12" s="10"/>
       <c r="AV12" s="10"/>
       <c r="AW12" s="10"/>
-      <c r="AX12" s="16"/>
-      <c r="AY12" s="10"/>
-      <c r="AZ12" s="17"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="10"/>
       <c r="BA12" s="17"/>
+      <c r="BB12" s="17"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -2011,12 +2041,13 @@
       <c r="AU13" s="10"/>
       <c r="AV13" s="10"/>
       <c r="AW13" s="10"/>
-      <c r="AX13" s="16"/>
-      <c r="AY13" s="10"/>
-      <c r="AZ13" s="17"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="10"/>
       <c r="BA13" s="17"/>
+      <c r="BB13" s="17"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -2066,12 +2097,13 @@
       <c r="AU14" s="10"/>
       <c r="AV14" s="10"/>
       <c r="AW14" s="10"/>
-      <c r="AX14" s="16"/>
-      <c r="AY14" s="10"/>
-      <c r="AZ14" s="17"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="10"/>
       <c r="BA14" s="17"/>
+      <c r="BB14" s="17"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -2121,12 +2153,13 @@
       <c r="AU15" s="10"/>
       <c r="AV15" s="10"/>
       <c r="AW15" s="10"/>
-      <c r="AX15" s="16"/>
-      <c r="AY15" s="10"/>
-      <c r="AZ15" s="17"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="10"/>
       <c r="BA15" s="17"/>
+      <c r="BB15" s="17"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -2176,12 +2209,13 @@
       <c r="AU16" s="10"/>
       <c r="AV16" s="10"/>
       <c r="AW16" s="10"/>
-      <c r="AX16" s="16"/>
-      <c r="AY16" s="10"/>
-      <c r="AZ16" s="17"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="10"/>
       <c r="BA16" s="17"/>
+      <c r="BB16" s="17"/>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -2231,12 +2265,13 @@
       <c r="AU17" s="10"/>
       <c r="AV17" s="10"/>
       <c r="AW17" s="10"/>
-      <c r="AX17" s="16"/>
-      <c r="AY17" s="10"/>
-      <c r="AZ17" s="17"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="10"/>
       <c r="BA17" s="17"/>
+      <c r="BB17" s="17"/>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -2286,12 +2321,13 @@
       <c r="AU18" s="10"/>
       <c r="AV18" s="10"/>
       <c r="AW18" s="10"/>
-      <c r="AX18" s="16"/>
-      <c r="AY18" s="10"/>
-      <c r="AZ18" s="17"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="10"/>
       <c r="BA18" s="17"/>
+      <c r="BB18" s="17"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -2343,10 +2379,11 @@
       <c r="AW19" s="21"/>
       <c r="AX19" s="21"/>
       <c r="AY19" s="21"/>
-      <c r="AZ19" s="17"/>
+      <c r="AZ19" s="21"/>
       <c r="BA19" s="17"/>
+      <c r="BB19" s="17"/>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -2398,10 +2435,11 @@
       <c r="AW20" s="21"/>
       <c r="AX20" s="21"/>
       <c r="AY20" s="21"/>
-      <c r="AZ20" s="17"/>
+      <c r="AZ20" s="21"/>
       <c r="BA20" s="17"/>
+      <c r="BB20" s="17"/>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -2429,18 +2467,18 @@
       <c r="Y21" s="26"/>
       <c r="Z21" s="26"/>
       <c r="AA21" s="26"/>
-      <c r="AB21" s="27"/>
+      <c r="AB21" s="26"/>
       <c r="AC21" s="27"/>
-      <c r="AD21" s="26"/>
+      <c r="AD21" s="27"/>
       <c r="AE21" s="26"/>
       <c r="AF21" s="26"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="27"/>
       <c r="AI21" s="26"/>
-      <c r="AJ21" s="27"/>
+      <c r="AJ21" s="26"/>
       <c r="AK21" s="27"/>
       <c r="AL21" s="27"/>
-      <c r="AM21" s="26"/>
+      <c r="AM21" s="27"/>
       <c r="AN21" s="26"/>
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
@@ -2453,10 +2491,11 @@
       <c r="AW21" s="26"/>
       <c r="AX21" s="26"/>
       <c r="AY21" s="26"/>
-      <c r="AZ21" s="17"/>
+      <c r="AZ21" s="26"/>
       <c r="BA21" s="17"/>
+      <c r="BB21" s="17"/>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2508,10 +2547,11 @@
       <c r="AW22" s="10"/>
       <c r="AX22" s="10"/>
       <c r="AY22" s="10"/>
-      <c r="AZ22" s="17"/>
+      <c r="AZ22" s="10"/>
       <c r="BA22" s="17"/>
+      <c r="BB22" s="17"/>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2563,10 +2603,11 @@
       <c r="AW23" s="10"/>
       <c r="AX23" s="10"/>
       <c r="AY23" s="10"/>
-      <c r="AZ23" s="17"/>
+      <c r="AZ23" s="10"/>
       <c r="BA23" s="17"/>
+      <c r="BB23" s="17"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2618,10 +2659,11 @@
       <c r="AW24" s="10"/>
       <c r="AX24" s="10"/>
       <c r="AY24" s="10"/>
-      <c r="AZ24" s="17"/>
+      <c r="AZ24" s="10"/>
       <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2673,10 +2715,11 @@
       <c r="AW25" s="10"/>
       <c r="AX25" s="10"/>
       <c r="AY25" s="10"/>
-      <c r="AZ25" s="17"/>
+      <c r="AZ25" s="10"/>
       <c r="BA25" s="17"/>
+      <c r="BB25" s="17"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2728,8 +2771,9 @@
       <c r="AW26" s="10"/>
       <c r="AX26" s="10"/>
       <c r="AY26" s="10"/>
+      <c r="AZ26" s="10"/>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2781,8 +2825,9 @@
       <c r="AW27" s="10"/>
       <c r="AX27" s="10"/>
       <c r="AY27" s="10"/>
+      <c r="AZ27" s="10"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2834,8 +2879,9 @@
       <c r="AW28" s="10"/>
       <c r="AX28" s="10"/>
       <c r="AY28" s="10"/>
+      <c r="AZ28" s="10"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2887,8 +2933,9 @@
       <c r="AW29" s="9"/>
       <c r="AX29" s="9"/>
       <c r="AY29" s="9"/>
+      <c r="AZ29" s="9"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2940,8 +2987,9 @@
       <c r="AW30" s="9"/>
       <c r="AX30" s="9"/>
       <c r="AY30" s="9"/>
+      <c r="AZ30" s="9"/>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2993,8 +3041,9 @@
       <c r="AW31" s="9"/>
       <c r="AX31" s="9"/>
       <c r="AY31" s="9"/>
+      <c r="AZ31" s="9"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -3046,6 +3095,7 @@
       <c r="AW32" s="9"/>
       <c r="AX32" s="9"/>
       <c r="AY32" s="9"/>
+      <c r="AZ32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
